--- a/Quadrant/www/Makeup Excel Data.xlsx
+++ b/Quadrant/www/Makeup Excel Data.xlsx
@@ -52,9 +52,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -456,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,11 +494,11 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:H3" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
@@ -509,15 +506,15 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -525,7 +522,7 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I3" ca="1" si="1">RANDBETWEEN(0,5) + ROUND(RAND(),2)</f>
-        <v>3.19</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -534,35 +531,35 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -716,7 +713,7 @@
       </c>
       <c r="B9">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:H24" ca="1" si="2">RANDBETWEEN(1,5)</f>
@@ -724,7 +721,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -736,15 +733,15 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">RANDBETWEEN(0,3) + ROUND(RAND(),2)</f>
-        <v>3.76</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -753,15 +750,15 @@
       </c>
       <c r="B10">
         <f t="shared" ref="B10:H25" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
@@ -769,7 +766,7 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
@@ -777,11 +774,11 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">RANDBETWEEN(0,5) + ROUND(RAND(),2)</f>
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -790,23 +787,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
@@ -814,11 +811,11 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ref="I11:I50" ca="1" si="4">RANDBETWEEN(0,5) + ROUND(RAND(),2)</f>
-        <v>4.92</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -827,7 +824,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
@@ -835,27 +832,27 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -864,11 +861,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
@@ -876,15 +873,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
@@ -892,7 +889,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.81</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -901,11 +898,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
@@ -913,23 +910,23 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.84</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -938,19 +935,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
@@ -958,15 +955,15 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -979,31 +976,31 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.72</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1012,7 +1009,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
@@ -1020,27 +1017,27 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1049,27 +1046,27 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
@@ -1077,7 +1074,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1086,15 +1083,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
@@ -1102,19 +1099,19 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1123,11 +1120,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
@@ -1135,23 +1132,23 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.23</v>
+        <v>4.9399999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1164,31 +1161,31 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.87</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1197,27 +1194,27 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
@@ -1225,7 +1222,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.42</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1238,31 +1235,31 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.81</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1275,19 +1272,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
@@ -1295,11 +1292,11 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1308,15 +1305,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
@@ -1324,19 +1321,19 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1345,15 +1342,15 @@
       </c>
       <c r="B26">
         <f t="shared" ref="B26:H41" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
@@ -1361,11 +1358,11 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
@@ -1373,7 +1370,7 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1382,15 +1379,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
@@ -1398,19 +1395,19 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.87</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1419,19 +1416,19 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
@@ -1439,15 +1436,15 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1460,7 +1457,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
@@ -1476,7 +1473,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
@@ -1484,7 +1481,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1497,15 +1494,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
@@ -1513,11 +1510,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -1534,31 +1531,31 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6899999999999995</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1567,35 +1564,35 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.76</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1604,35 +1601,35 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.38</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1641,23 +1638,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="5"/>
@@ -1669,7 +1666,7 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89</v>
+        <v>1.3900000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1682,11 +1679,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
@@ -1694,11 +1691,11 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
@@ -1706,7 +1703,7 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.66</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1715,11 +1712,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="5"/>
@@ -1727,23 +1724,23 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9399999999999995</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1752,35 +1749,35 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5300000000000002</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1793,31 +1790,31 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.48</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1830,31 +1827,31 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1863,7 +1860,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="5"/>
@@ -1871,19 +1868,19 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
@@ -1891,7 +1888,7 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.41</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1900,7 +1897,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="5"/>
@@ -1908,11 +1905,11 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
@@ -1920,15 +1917,15 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1800000000000002</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1937,35 +1934,35 @@
       </c>
       <c r="B42">
         <f t="shared" ref="B42:H50" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5600000000000005</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1974,15 +1971,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="6"/>
@@ -1990,7 +1987,7 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="6"/>
@@ -1998,11 +1995,11 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1400000000000001</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2011,15 +2008,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="6"/>
@@ -2027,19 +2024,19 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.44</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2048,19 +2045,19 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
@@ -2072,11 +2069,11 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5600000000000005</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2085,7 +2082,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
@@ -2093,27 +2090,27 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.13</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2122,23 +2119,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="6"/>
@@ -2146,11 +2143,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2163,11 +2160,11 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="6"/>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
@@ -2183,11 +2180,11 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.04</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2196,27 +2193,27 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="6"/>
@@ -2224,7 +2221,7 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.96</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2233,27 +2230,27 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="6"/>
@@ -2261,7 +2258,7 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.11</v>
+        <v>3.71</v>
       </c>
     </row>
   </sheetData>
